--- a/PhieuKiemDinh/PhieuKiemDinh/Resources/Productivity.xlsx
+++ b/PhieuKiemDinh/PhieuKiemDinh/Resources/Productivity.xlsx
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +174,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,21 +564,23 @@
     <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
     <col min="6" max="7" width="14.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.875" customWidth="1"/>
+    <col min="10" max="10" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -591,6 +604,9 @@
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
